--- a/data/trans_bre/P16B13-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B13-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-10,25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>38,78</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -642,27 +642,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-43,29; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8,55; 81,88</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,29; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,12; 438,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,3%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,26; 41,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 50,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 60,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,82; 72,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 104,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 150,7</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,7%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,42; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,82; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,42; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,82; 0,0</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,61%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,99; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 21,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 51,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,99; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,65; 27,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 103,98</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-28,46; 0,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 16,75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-28,46; 0,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; 20,61</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,49%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 11,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,92; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 13,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,92; 0,0</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,96; 6,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 12,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 11,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 6,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 14,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 12,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B13-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-4,05%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 11,82</t>
+          <t>-16,91; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-21,12; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 13,55</t>
+          <t>-16,91; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-21,12; 0,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 28,42</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 17,04</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 39,71</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 20,56</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,45</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-5,96; 6,07</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,87; 12,5</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-2,17; 11,0</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-6,12; 6,52</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1,94; 14,53</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-2,2; 12,58</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16B13-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Edad-trans_bre.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,55; 81,88</t>
+          <t>8,46; 81,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 438,91</t>
+          <t>9,12; 437,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 41,58</t>
+          <t>-30,74; 39,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 50,74</t>
+          <t>-8,33; 49,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,12</t>
+          <t>0,0; 71,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 72,47</t>
+          <t>-34,4; 69,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 104,26</t>
+          <t>-9,68; 110,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 150,7</t>
+          <t>0,0; 252,42</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-43,42; 0,0</t>
+          <t>-42,95; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,17</t>
+          <t>0,0; 28,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-51,82; 0,0</t>
+          <t>-51,36; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-43,42; 0,0</t>
+          <t>-42,95; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,32</t>
+          <t>0,0; 39,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,82; 0,0</t>
+          <t>-51,36; 0,0</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 0,0</t>
+          <t>-20,47; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 21,87</t>
+          <t>-8,4; 22,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,01</t>
+          <t>0,0; 54,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 0,0</t>
+          <t>-20,47; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 27,73</t>
+          <t>-8,43; 29,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 103,98</t>
+          <t>0,0; 118,22</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 0,0</t>
+          <t>-20,89; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 16,75</t>
+          <t>-6,52; 15,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 0,0</t>
+          <t>-20,89; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 20,61</t>
+          <t>-6,53; 19,08</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 0,0</t>
+          <t>-17,97; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 0,0</t>
+          <t>-20,22; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 0,0</t>
+          <t>-17,97; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 0,0</t>
+          <t>-20,22; 0,0</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,42</t>
+          <t>0,0; 30,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,04</t>
+          <t>0,0; 13,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,71</t>
+          <t>0,0; 44,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,56</t>
+          <t>0,0; 15,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 6,07</t>
+          <t>-6,12; 5,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,87; 12,5</t>
+          <t>2,12; 12,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 11,0</t>
+          <t>-2,29; 11,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 6,52</t>
+          <t>-6,2; 6,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,94; 14,53</t>
+          <t>2,21; 14,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 12,58</t>
+          <t>-2,28; 13,39</t>
         </is>
       </c>
     </row>
